--- a/src/test/resources/vtiger_test_scenarios.xlsx
+++ b/src/test/resources/vtiger_test_scenarios.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KESHRI\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95369742-B12B-4168-ACAA-B00D92A8B534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -32,12 +38,6 @@
   </si>
   <si>
     <t>Verify that an existing contact can be edited and deleted.</t>
-  </si>
-  <si>
-    <t>Verify the creation of a sales order from a lead.</t>
-  </si>
-  <si>
-    <t>Verify that emails can be sent from vTiger CRM.</t>
   </si>
   <si>
     <t>1. Open the vTiger CRM login page.
@@ -52,48 +52,25 @@
 5. Click 'Save.'</t>
   </si>
   <si>
-    <t>Edit:
-1. Navigate to the 'Contacts' module.
-2. Select an existing contact.
-3. Click 'Edit,' modify the details, and save.
-Delete:
-1. Navigate to the 'Contacts' module.
-2. Select a contact and click 'Delete.'
-3. Confirm the deletion.</t>
-  </si>
-  <si>
-    <t>1. Navigate to the 'Leads' module.
-2. Select a lead and convert it to a sales order.
-3. Fill in the necessary details (e.g., product name, quantity, price).
-4. Save the sales order.</t>
-  </si>
-  <si>
-    <t>1. Configure email settings in the 'Settings' module.
-2. Compose a new email from the 'Emails' module.
-3. Send the email to a valid address.</t>
-  </si>
-  <si>
     <t>The user is redirected to the dashboard, and no error messages are displayed.</t>
   </si>
   <si>
     <t>The lead is created and appears in the leads list.</t>
   </si>
   <si>
-    <t>Edit: The changes are reflected in the contact details.
+    <t xml:space="preserve">
 Delete: The contact is removed from the list.</t>
   </si>
   <si>
-    <t>The sales order is created successfully and linked to the lead.</t>
-  </si>
-  <si>
-    <t>The email is sent successfully, and a confirmation is displayed.</t>
+    <t xml:space="preserve">
+1. Navigate to the 'Contacts' module.2. Select an existing contact.3. Confirm the deletion.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,10 +122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -156,13 +136,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +188,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,6 +222,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,9 +257,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,14 +433,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="148.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,59 +458,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
